--- a/biology/Zoologie/Bullia/Bullia.xlsx
+++ b/biology/Zoologie/Bullia/Bullia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bullia est un genre de gastéropodes marins appartenant à la famille des nassaridés .
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les sous-genres suivants sont reconnus :
 Bullia (Bullia) Gray, 1834
@@ -519,32 +533,32 @@
 Le genre Bullia comprend les espèces suivantes :
 Bullia aikeni Kilburn, 1978
 Bullia ancillaeformis Smith, 1906
-Bullia annulata (Lamarck, 1816) [2]
+Bullia annulata (Lamarck, 1816) 
 † Bullia bantamensis Oostingh, 1933
-Bullia callosa (W. Wood, 1828) [3]
+Bullia callosa (W. Wood, 1828) 
 Bullia cataphracta Kilburn, 1978
 Bullia ceroplasta Melvill, 1898
 Bullia chitanii Yokoyama, 1926 †
 Bullia crosseana Tapparone-Canefri, 1882 (nomen dubium)
 Bullia cumingiana Dunker, 1852
-Bullia digitalis (Dillwyn, 1817) [4]
-Bullia diluta (Krauss, 1848) [5]
+Bullia digitalis (Dillwyn, 1817) 
+Bullia diluta (Krauss, 1848) 
 Bullia elegans Dunker, 1857 (nomen dubium)
-Bullia granulosa (Lamarck, 1822)[6] - synonyme Bullia fusca Craven[7]
+Bullia granulosa (Lamarck, 1822) - synonyme Bullia fusca Craven
 Bullia gruveli (Dautzenberg, 1910)
 Bullia indusindica Melvill, 1898
 Bullia insignis Turton, 1932 (nomen dubium)
 Bullia jucunda Turton, 1932
 Bullia kurrachensis Angas, 1877
-Bullia laevissima (Gmelin, 1791) [8]
+Bullia laevissima (Gmelin, 1791) 
 † Bullia litoralis Oostingh, 1933
 Bullia livida Reeve, 1846
 Bullia martinii Gray, 1843 (nomen dubium)
 Bullia mauritiana Gray, 1839
 Bullia melanoides (Deshayes, 1832)
-Bullia mirepicta Bozzetti, 2007[9]
-Bullia mozambicensis Smith, 1878 [10]
-Bullia natalensis (Krauss, 1848)[11].
+Bullia mirepicta Bozzetti, 2007
+Bullia mozambicensis Smith, 1878 
+Bullia natalensis (Krauss, 1848).
 Bullia nitida Sowerby, 1895
 Bullia nuttalli Kilburn, 1978
 Bullia osculata Sowerby III, 1900
@@ -555,8 +569,8 @@
 Bullia persica Smith, 1878
 † Bullia provecta Beets, 1942
 Bullia pulchella Turton, 1932  (nomen dubium)
-Bullia pura Melvill, 1885 [12]
-Bullia rhodostoma Reeve, 1847 [13]
+Bullia pura Melvill, 1885 
+Bullia rhodostoma Reeve, 1847 
 Bullia rogersi Smythe &amp; Chatfield, 1981
 Bullia semiplicata Gray, 1833
 Bullia sendersi Kilburn, 1978
@@ -566,7 +580,7 @@
 † Bullia sundaica Oostingh, 1939
 Bullia tamsiana Dunker, 1853
 Bullia tenuis Reeve, 1846
-Bullia terebraeformis Dautzenberg[14]
+Bullia terebraeformis Dautzenberg
 Bullia townsendi Melvill, 1912
 Bullia tranquebarica (Röding, 1798)
 Bullia trifasciata Smith, 1904
@@ -574,7 +588,7 @@
 Bullia turrita Gray, 1839
 Bullia vittata (Linnaeus, 1767)
 Synonymes :
-Bullia belangeri Kiener[15] : synonyme de Bullia tranquebarica (Röding, 1798)
+Bullia belangeri Kiener : synonyme de Bullia tranquebarica (Röding, 1798)
 Bullia cinerea Preston, 1906 : synonyme de Nassarius dorsatus (Röding, 1798)
 Bullia fuscus Gray in Dieffenbach, 1834 est synonyme d’Impages hectica (Linnaeus, 1758)
 Bullia miran (Bruguière, 1789) est un synonyme de Dorsanum miran (Bruguière, 1789)
